--- a/PS-VRP/Dati_output/schedulazione_ridotta.xlsx
+++ b/PS-VRP/Dati_output/schedulazione_ridotta.xlsx
@@ -38,8 +38,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,38 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FCE5CD"/>
         <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -546,7 +546,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>253409</v>
+        <v>243569</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -567,12 +567,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>252815</v>
+        <v>253375</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -581,24 +581,24 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:11</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:09:11</t>
+          <t>08-09-2025 08:10:40</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>253072</v>
+        <v>253370</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -607,24 +607,24 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:12:07</t>
+          <t>08-09-2025 09:02:33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:07</t>
+          <t>08-09-2025 09:17:33</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>253710</v>
+        <v>253525</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -633,24 +633,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 13:15:15</t>
+          <t>08-09-2025 12:45:06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 13:36:15</t>
+          <t>08-09-2025 13:00:06</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>253527</v>
+        <v>253246</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -659,24 +659,24 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 13:37:52</t>
+          <t>08-09-2025 14:32:14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 13:56:52</t>
+          <t>08-09-2025 14:51:14</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>253278</v>
+        <v>253100</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -685,24 +685,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 07:04:21</t>
+          <t>09-09-2025 10:05:29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 07:25:21</t>
+          <t>09-09-2025 10:20:29</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>253687</v>
+        <v>252815</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -711,24 +711,24 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 07:53:47</t>
+          <t>09-09-2025 11:07:50</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 08:10:47</t>
+          <t>09-09-2025 11:45:50</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>253271</v>
+        <v>253095</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -737,76 +737,76 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 08:55:01</t>
+          <t>10-09-2025 07:48:47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 09:12:01</t>
+          <t>10-09-2025 08:30:47</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>253686</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:54:39</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:11:39</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="A10" s="3" t="n">
+        <v>253361</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:42:00</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>253374</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:55:53</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:12:53</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="A11" s="3" t="n">
+        <v>253376</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:58:42</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:23:42</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>252833</v>
+        <v>253371</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
@@ -815,24 +815,24 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-09-2025 12:23:19</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:00</t>
+          <t>08-09-2025 12:48:19</t>
         </is>
       </c>
       <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>253140</v>
+        <v>253372</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
@@ -841,12 +841,12 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:47</t>
+          <t>08-09-2025 14:36:05</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:42:47</t>
+          <t>09-09-2025 07:01:05</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
@@ -858,7 +858,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>252906</v>
+        <v>253368</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
@@ -867,24 +867,24 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:38:37</t>
+          <t>09-09-2025 08:44:51</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 11:05:37</t>
+          <t>09-09-2025 09:09:51</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>253721</v>
+        <v>253367</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
@@ -893,12 +893,12 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 11:40:20</t>
+          <t>09-09-2025 10:53:38</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 12:22:20</t>
+          <t>09-09-2025 11:18:38</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
@@ -910,7 +910,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>244023</v>
+        <v>253377</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -919,12 +919,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 13:01:44</t>
+          <t>09-09-2025 13:34:20</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 13:32:44</t>
+          <t>09-09-2025 13:59:20</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
@@ -936,7 +936,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>253659</v>
+        <v>253401</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -945,76 +945,80 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 13:41:02</t>
+          <t>10-09-2025 08:07:03</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 14:08:02</t>
+          <t>10-09-2025 08:34:03</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>253246</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:31:47</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:58:47</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
+      <c r="A18" s="4" t="n">
+        <v>253259</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:17:00</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>253016</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:26:14</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:58:14</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>253100</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:13:02</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:38:02</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>253016</v>
+        <v>253362</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -1023,12 +1027,12 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 10:11:37</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>05-09-2025 10:28:37</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
@@ -1042,7 +1046,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>253314</v>
+        <v>252679</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -1051,12 +1055,12 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 08:45:23</t>
+          <t>05-09-2025 11:27:00</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 09:19:23</t>
+          <t>05-09-2025 12:01:00</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
@@ -1070,7 +1074,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>253591</v>
+        <v>252682</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -1079,12 +1083,12 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 10:02:47</t>
+          <t>05-09-2025 13:01:00</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 10:19:47</t>
+          <t>05-09-2025 13:18:00</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
@@ -1098,7 +1102,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>252685</v>
+        <v>253140</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -1107,26 +1111,24 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 10:37:12</t>
+          <t>05-09-2025 14:41:24</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 10:54:12</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>05-09-2025 14:58:24</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>252569</v>
+        <v>253318</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -1135,12 +1137,12 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:46</t>
+          <t>08-09-2025 07:54:14</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 12:25:46</t>
+          <t>08-09-2025 08:13:14</t>
         </is>
       </c>
       <c r="E24" s="4" t="n">
@@ -1152,7 +1154,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>252843</v>
+        <v>253317</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -1161,24 +1163,24 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 12:35:21</t>
+          <t>08-09-2025 09:04:47</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 13:02:21</t>
+          <t>08-09-2025 09:19:47</t>
         </is>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>253284</v>
+        <v>253425</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -1187,24 +1189,24 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 13:21:33</t>
+          <t>08-09-2025 11:02:34</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 13:46:33</t>
+          <t>08-09-2025 11:21:34</t>
         </is>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>252827</v>
+        <v>244023</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -1213,24 +1215,24 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 14:43:33</t>
+          <t>08-09-2025 13:47:55</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 07:02:33</t>
+          <t>08-09-2025 14:19:55</t>
         </is>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>253259</v>
+        <v>250891</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1239,26 +1241,24 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 13:52:33</t>
+          <t>08-09-2025 14:28:13</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 14:24:33</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 14:45:13</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>253095</v>
+        <v>253278</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -1267,24 +1267,24 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 07:33:47</t>
+          <t>09-09-2025 08:02:43</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 07:50:47</t>
+          <t>09-09-2025 08:19:43</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>253375</v>
+        <v>253072</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1293,24 +1293,24 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:06</t>
+          <t>09-09-2025 08:48:08</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 09:24:06</t>
+          <t>09-09-2025 09:03:08</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>253361</v>
+        <v>253271</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1319,24 +1319,24 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 10:15:59</t>
+          <t>09-09-2025 09:32:16</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 10:30:59</t>
+          <t>09-09-2025 09:47:16</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>253372</v>
+        <v>253374</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 11:47:41</t>
+          <t>09-09-2025 10:29:54</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 12:02:41</t>
+          <t>09-09-2025 10:48:54</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1362,7 +1362,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>253401</v>
+        <v>253359</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1371,24 +1371,24 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 13:46:28</t>
+          <t>09-09-2025 11:48:31</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 14:03:28</t>
+          <t>09-09-2025 12:05:31</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>235572</v>
+        <v>253268</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -1397,12 +1397,12 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 14:26:17</t>
+          <t>09-09-2025 14:19:32</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 14:45:17</t>
+          <t>09-09-2025 14:36:32</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
@@ -1414,7 +1414,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>253260</v>
+        <v>253267</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -1423,76 +1423,76 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 08:08:16</t>
+          <t>10-09-2025 07:55:05</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 08:25:16</t>
+          <t>10-09-2025 08:10:05</t>
         </is>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>252601</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:56:30</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>253370</v>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:14:40</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:33:40</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>252529</v>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:01:13</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:33:13</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>2</v>
+      <c r="A37" s="5" t="n">
+        <v>252216</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:47:42</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:26:12</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>252939</v>
+        <v>252833</v>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
@@ -1501,24 +1501,24 @@
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 11:48:01</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>09-09-2025 12:32:31</t>
         </is>
       </c>
       <c r="E38" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>253268</v>
+        <v>252939</v>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
@@ -1527,24 +1527,24 @@
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 09:04:18</t>
+          <t>09-09-2025 13:47:18</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 09:36:48</t>
+          <t>09-09-2025 14:21:48</t>
         </is>
       </c>
       <c r="E39" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>253223</v>
+        <v>253332</v>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:21</t>
+          <t>10-09-2025 07:51:36</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:51</t>
+          <t>10-09-2025 08:24:06</t>
         </is>
       </c>
       <c r="E40" s="5" t="n">
@@ -1570,7 +1570,7 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>252601</v>
+        <v>253710</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
@@ -1579,24 +1579,24 @@
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:15</t>
+          <t>10-09-2025 11:28:55</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:45</t>
+          <t>10-09-2025 12:01:25</t>
         </is>
       </c>
       <c r="E41" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>252002</v>
+        <v>253314</v>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>252582</v>
+        <v>252002</v>
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
@@ -1633,12 +1633,12 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>04-09-2025 13:38:24</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 14:30:40</t>
+          <t>04-09-2025 14:28:24</t>
         </is>
       </c>
       <c r="E43" s="6" t="inlineStr">
@@ -1647,12 +1647,12 @@
         </is>
       </c>
       <c r="F43" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>253313</v>
+        <v>252582</v>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
@@ -1661,16 +1661,18 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 07:16:45</t>
+          <t>05-09-2025 07:24:05</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 07:46:45</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="n">
-        <v>0</v>
+          <t>05-09-2025 08:04:05</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F44" s="6" t="n">
         <v>1</v>
@@ -1678,7 +1680,7 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>252679</v>
+        <v>252685</v>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
@@ -1687,12 +1689,12 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 09:26:46</t>
+          <t>05-09-2025 08:50:10</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>05-09-2025 09:20:10</t>
         </is>
       </c>
       <c r="E45" s="6" t="inlineStr">
@@ -1706,7 +1708,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>253317</v>
+        <v>253721</v>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
@@ -1715,12 +1717,12 @@
       </c>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 10:56:46</t>
+          <t>05-09-2025 10:34:44</t>
         </is>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 11:31:46</t>
+          <t>05-09-2025 11:14:44</t>
         </is>
       </c>
       <c r="E46" s="6" t="n">
@@ -1732,7 +1734,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>252682</v>
+        <v>253313</v>
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
@@ -1741,21 +1743,19 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 13:14:32</t>
+          <t>05-09-2025 11:54:07</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 13:44:32</t>
-        </is>
-      </c>
-      <c r="E47" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>05-09-2025 12:34:07</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:57</t>
+          <t>05-09-2025 14:14:08</t>
         </is>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:57</t>
+          <t>08-09-2025 07:29:08</t>
         </is>
       </c>
       <c r="E48" s="6" t="n">
@@ -1786,7 +1786,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>253208</v>
+        <v>253527</v>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
@@ -1795,24 +1795,24 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:30:15</t>
+          <t>08-09-2025 11:36:26</t>
         </is>
       </c>
       <c r="D49" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:00:15</t>
+          <t>08-09-2025 12:46:26</t>
         </is>
       </c>
       <c r="E49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>253210</v>
+        <v>253528</v>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
@@ -1821,64 +1821,64 @@
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:44:31</t>
+          <t>08-09-2025 13:53:55</t>
         </is>
       </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:31</t>
+          <t>08-09-2025 14:18:55</t>
         </is>
       </c>
       <c r="E50" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>243569</v>
+        <v>253522</v>
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 08:18:06</t>
         </is>
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>09-09-2025 08:43:06</t>
         </is>
       </c>
       <c r="E51" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>253318</v>
+        <v>253524</v>
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:40:40</t>
+          <t>09-09-2025 12:01:43</t>
         </is>
       </c>
       <c r="D52" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:59:40</t>
+          <t>09-09-2025 12:26:43</t>
         </is>
       </c>
       <c r="E52" s="6" t="n">
@@ -1890,47 +1890,47 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>253249</v>
+        <v>252995</v>
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 08:51:13</t>
+          <t>09-09-2025 13:25:29</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:13</t>
+          <t>09-09-2025 14:10:29</t>
         </is>
       </c>
       <c r="E53" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F53" s="6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>252995</v>
+        <v>253602</v>
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:03:59</t>
+          <t>10-09-2025 07:18:48</t>
         </is>
       </c>
       <c r="D54" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:22:59</t>
+          <t>10-09-2025 07:53:48</t>
         </is>
       </c>
       <c r="E54" s="6" t="n">
@@ -1942,437 +1942,439 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>253425</v>
+        <v>253223</v>
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:31:18</t>
+          <t>10-09-2025 09:50:53</t>
         </is>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:50:18</t>
+          <t>10-09-2025 11:05:53</t>
         </is>
       </c>
       <c r="E55" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>253706</v>
+        <v>253208</v>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:16:39</t>
+          <t>10-09-2025 11:22:17</t>
         </is>
       </c>
       <c r="D56" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:37:39</t>
+          <t>10-09-2025 12:47:17</t>
         </is>
       </c>
       <c r="E56" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F56" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>253210</v>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:31:32</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:56:32</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>252529</v>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 08:30:42</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:55:42</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>253261</v>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:03:47</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:53:47</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="7" t="n">
-        <v>250891</v>
-      </c>
-      <c r="B57" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C57" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D57" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="E57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="7" t="n">
-        <v>253036</v>
-      </c>
-      <c r="B58" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C58" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:57:29</t>
-        </is>
-      </c>
-      <c r="D58" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:37:29</t>
-        </is>
-      </c>
-      <c r="E58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7" t="n">
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>253436</v>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:12:38</t>
+        </is>
+      </c>
+      <c r="D60" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:37:38</t>
+        </is>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="7" t="n">
-        <v>252216</v>
-      </c>
-      <c r="B59" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C59" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:56:13</t>
-        </is>
-      </c>
-      <c r="D59" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:01:13</t>
-        </is>
-      </c>
-      <c r="E59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="7" t="n">
-        <v>253524</v>
-      </c>
-      <c r="B60" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C60" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:23:02</t>
-        </is>
-      </c>
-      <c r="D60" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:23:02</t>
-        </is>
-      </c>
-      <c r="E60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="61">
-      <c r="A61" s="7" t="n">
-        <v>253247</v>
-      </c>
-      <c r="B61" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C61" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:21:47</t>
-        </is>
-      </c>
-      <c r="D61" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:51:47</t>
-        </is>
-      </c>
-      <c r="E61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7" t="n">
+      <c r="A61" s="6" t="n">
+        <v>244743</v>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:56:29</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 13:36:29</t>
+        </is>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>253392</v>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:05:49</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:40:49</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 08:50:12</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 09:30:12</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="7" t="n">
-        <v>253332</v>
-      </c>
-      <c r="B62" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C62" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:41:22</t>
-        </is>
-      </c>
-      <c r="D62" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 11:16:22</t>
-        </is>
-      </c>
-      <c r="E62" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7" t="n">
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>252274</v>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:26:08</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:56:08</t>
+        </is>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>253393</v>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:49:33</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 07:34:33</t>
+        </is>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:52:11</t>
+        </is>
+      </c>
+      <c r="D66" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:32:11</t>
+        </is>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:15:51</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:50:51</t>
+        </is>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:37:21</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="inlineStr">
+        <is>
+          <t>16-09-2025 08:07:21</t>
+        </is>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>253295</v>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>16-09-2025 12:59:09</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:44:09</t>
+        </is>
+      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>252741</v>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:34:13</t>
+        </is>
+      </c>
+      <c r="D70" s="6" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:19:13</t>
+        </is>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="n">
-        <v>253668</v>
-      </c>
-      <c r="B63" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C63" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:21:11</t>
-        </is>
-      </c>
-      <c r="D63" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:46:11</t>
-        </is>
-      </c>
-      <c r="E63" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="7" t="n">
-        <v>253522</v>
-      </c>
-      <c r="B64" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C64" s="7" t="inlineStr">
-        <is>
-          <t>11-09-2025 09:56:03</t>
-        </is>
-      </c>
-      <c r="D64" s="7" t="inlineStr">
-        <is>
-          <t>11-09-2025 10:26:03</t>
-        </is>
-      </c>
-      <c r="E64" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="7" t="n">
-        <v>253528</v>
-      </c>
-      <c r="B65" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C65" s="7" t="inlineStr">
-        <is>
-          <t>11-09-2025 13:44:41</t>
-        </is>
-      </c>
-      <c r="D65" s="7" t="inlineStr">
-        <is>
-          <t>11-09-2025 14:09:41</t>
-        </is>
-      </c>
-      <c r="E65" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="n">
-        <v>252274</v>
-      </c>
-      <c r="B66" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C66" s="7" t="inlineStr">
-        <is>
-          <t>12-09-2025 08:08:51</t>
-        </is>
-      </c>
-      <c r="D66" s="7" t="inlineStr">
-        <is>
-          <t>12-09-2025 08:48:51</t>
-        </is>
-      </c>
-      <c r="E66" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="7" t="n">
-        <v>253392</v>
-      </c>
-      <c r="B67" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C67" s="7" t="inlineStr">
-        <is>
-          <t>12-09-2025 11:42:16</t>
-        </is>
-      </c>
-      <c r="D67" s="7" t="inlineStr">
-        <is>
-          <t>12-09-2025 12:22:16</t>
-        </is>
-      </c>
-      <c r="E67" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="7" t="n">
-        <v>253393</v>
-      </c>
-      <c r="B68" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C68" s="7" t="inlineStr">
-        <is>
-          <t>12-09-2025 14:31:39</t>
-        </is>
-      </c>
-      <c r="D68" s="7" t="inlineStr">
-        <is>
-          <t>12-09-2025 14:56:39</t>
-        </is>
-      </c>
-      <c r="E68" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="7" t="n">
-        <v>253472</v>
-      </c>
-      <c r="B69" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C69" s="7" t="inlineStr">
-        <is>
-          <t>15-09-2025 08:14:17</t>
-        </is>
-      </c>
-      <c r="D69" s="7" t="inlineStr">
-        <is>
-          <t>15-09-2025 08:49:17</t>
-        </is>
-      </c>
-      <c r="E69" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="7" t="n">
-        <v>253525</v>
-      </c>
-      <c r="B70" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C70" s="7" t="inlineStr">
-        <is>
-          <t>15-09-2025 13:41:05</t>
-        </is>
-      </c>
-      <c r="D70" s="7" t="inlineStr">
-        <is>
-          <t>15-09-2025 14:21:05</t>
-        </is>
-      </c>
-      <c r="E70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="n">
-        <v>253371</v>
+        <v>253249</v>
       </c>
       <c r="B71" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>16-09-2025 07:53:14</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="D71" s="7" t="inlineStr">
         <is>
-          <t>16-09-2025 08:18:14</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="E71" s="7" t="n">
@@ -2384,21 +2386,21 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="n">
-        <v>253376</v>
+        <v>253284</v>
       </c>
       <c r="B72" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>16-09-2025 10:06:00</t>
+          <t>08-09-2025 08:16:45</t>
         </is>
       </c>
       <c r="D72" s="7" t="inlineStr">
         <is>
-          <t>16-09-2025 10:31:00</t>
+          <t>08-09-2025 08:33:45</t>
         </is>
       </c>
       <c r="E72" s="7" t="n">
@@ -2410,53 +2412,53 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="n">
-        <v>253377</v>
+        <v>252681</v>
       </c>
       <c r="B73" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>16-09-2025 13:30:36</t>
+          <t>08-09-2025 09:30:45</t>
         </is>
       </c>
       <c r="D73" s="7" t="inlineStr">
         <is>
-          <t>16-09-2025 13:55:36</t>
-        </is>
-      </c>
-      <c r="E73" s="7" t="n">
-        <v>0</v>
+          <t>08-09-2025 09:47:45</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F73" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="n">
-        <v>253295</v>
+        <v>252906</v>
       </c>
       <c r="B74" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>17-09-2025 08:03:19</t>
+          <t>08-09-2025 11:42:46</t>
         </is>
       </c>
       <c r="D74" s="7" t="inlineStr">
         <is>
-          <t>17-09-2025 08:43:19</t>
-        </is>
-      </c>
-      <c r="E74" s="7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 11:59:46</t>
+        </is>
+      </c>
+      <c r="E74" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F74" s="7" t="n">
         <v>2</v>
@@ -2464,21 +2466,21 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="n">
-        <v>253368</v>
+        <v>253409</v>
       </c>
       <c r="B75" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>17-09-2025 12:33:24</t>
+          <t>08-09-2025 12:34:29</t>
         </is>
       </c>
       <c r="D75" s="7" t="inlineStr">
         <is>
-          <t>17-09-2025 13:13:24</t>
+          <t>08-09-2025 12:51:29</t>
         </is>
       </c>
       <c r="E75" s="7" t="n">
@@ -2490,21 +2492,21 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="n">
-        <v>253367</v>
+        <v>253194</v>
       </c>
       <c r="B76" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>17-09-2025 14:57:10</t>
+          <t>08-09-2025 13:18:40</t>
         </is>
       </c>
       <c r="D76" s="7" t="inlineStr">
         <is>
-          <t>18-09-2025 07:22:10</t>
+          <t>08-09-2025 13:33:40</t>
         </is>
       </c>
       <c r="E76" s="7" t="n">
@@ -2516,73 +2518,73 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="n">
-        <v>252397</v>
+        <v>252827</v>
       </c>
       <c r="B77" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>18-09-2025 09:37:52</t>
+          <t>09-09-2025 08:52:45</t>
         </is>
       </c>
       <c r="D77" s="7" t="inlineStr">
         <is>
-          <t>18-09-2025 10:17:52</t>
+          <t>09-09-2025 09:09:45</t>
         </is>
       </c>
       <c r="E77" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="n">
-        <v>253602</v>
+        <v>252569</v>
       </c>
       <c r="B78" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>18-09-2025 12:13:48</t>
+          <t>10-09-2025 07:59:45</t>
         </is>
       </c>
       <c r="D78" s="7" t="inlineStr">
         <is>
-          <t>18-09-2025 12:43:48</t>
+          <t>10-09-2025 08:16:45</t>
         </is>
       </c>
       <c r="E78" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="n">
-        <v>253244</v>
+        <v>252843</v>
       </c>
       <c r="B79" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>18-09-2025 14:40:53</t>
+          <t>10-09-2025 08:26:20</t>
         </is>
       </c>
       <c r="D79" s="7" t="inlineStr">
         <is>
-          <t>19-09-2025 07:15:53</t>
+          <t>10-09-2025 08:53:20</t>
         </is>
       </c>
       <c r="E79" s="7" t="n">
@@ -2593,164 +2595,166 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="n">
-        <v>253549</v>
-      </c>
-      <c r="B80" s="7" t="inlineStr">
+      <c r="A80" s="3" t="n">
+        <v>253260</v>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C80" s="7" t="inlineStr">
-        <is>
-          <t>19-09-2025 10:02:23</t>
-        </is>
-      </c>
-      <c r="D80" s="7" t="inlineStr">
-        <is>
-          <t>19-09-2025 10:37:23</t>
-        </is>
-      </c>
-      <c r="E80" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7" t="n">
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>253247</v>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:24:24</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:49:24</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="7" t="n">
+    <row r="82">
+      <c r="A82" s="3" t="n">
         <v>253455</v>
       </c>
-      <c r="B81" s="7" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C81" s="7" t="inlineStr">
-        <is>
-          <t>19-09-2025 13:21:03</t>
-        </is>
-      </c>
-      <c r="D81" s="7" t="inlineStr">
-        <is>
-          <t>19-09-2025 13:56:03</t>
-        </is>
-      </c>
-      <c r="E81" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7" t="n">
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:38:59</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:03:59</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="7" t="n">
-        <v>253261</v>
-      </c>
-      <c r="B82" s="7" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>253036</v>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C82" s="7" t="inlineStr">
-        <is>
-          <t>19-09-2025 14:51:36</t>
-        </is>
-      </c>
-      <c r="D82" s="7" t="inlineStr">
-        <is>
-          <t>22-09-2025 07:26:36</t>
-        </is>
-      </c>
-      <c r="E82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7" t="n">
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:59:32</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:34:32</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="7" t="n">
-        <v>253436</v>
-      </c>
-      <c r="B83" s="7" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>253245</v>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C83" s="7" t="inlineStr">
-        <is>
-          <t>22-09-2025 07:45:27</t>
-        </is>
-      </c>
-      <c r="D83" s="7" t="inlineStr">
-        <is>
-          <t>22-09-2025 08:10:27</t>
-        </is>
-      </c>
-      <c r="E83" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="7" t="n">
-        <v>244743</v>
-      </c>
-      <c r="B84" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C84" s="7" t="inlineStr">
-        <is>
-          <t>22-09-2025 08:29:18</t>
-        </is>
-      </c>
-      <c r="D84" s="7" t="inlineStr">
-        <is>
-          <t>22-09-2025 09:09:18</t>
-        </is>
-      </c>
-      <c r="E84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7" t="n">
-        <v>7</v>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:53:16</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:28:16</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="n">
-        <v>252741</v>
-      </c>
-      <c r="B85" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C85" s="7" t="inlineStr">
-        <is>
-          <t>22-09-2025 09:38:39</t>
-        </is>
-      </c>
-      <c r="D85" s="7" t="inlineStr">
-        <is>
-          <t>22-09-2025 10:13:39</t>
-        </is>
-      </c>
-      <c r="E85" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7" t="n">
-        <v>7</v>
+      <c r="A85" s="8" t="n">
+        <v>252702</v>
+      </c>
+      <c r="B85" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D85" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E85" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="n">
-        <v>252702</v>
+        <v>253591</v>
       </c>
       <c r="B86" s="8" t="inlineStr">
         <is>
@@ -2759,12 +2763,12 @@
       </c>
       <c r="C86" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="D86" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>05-09-2025 09:13:23</t>
         </is>
       </c>
       <c r="E86" s="8" t="inlineStr">
@@ -2773,12 +2777,12 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="8" t="n">
-        <v>253362</v>
+        <v>252664</v>
       </c>
       <c r="B87" s="8" t="inlineStr">
         <is>
@@ -2787,12 +2791,12 @@
       </c>
       <c r="C87" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>05-09-2025 09:30:48</t>
         </is>
       </c>
       <c r="D87" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:23</t>
+          <t>05-09-2025 10:05:48</t>
         </is>
       </c>
       <c r="E87" s="8" t="inlineStr">
@@ -2801,12 +2805,12 @@
         </is>
       </c>
       <c r="F87" s="8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="8" t="n">
-        <v>253194</v>
+        <v>235572</v>
       </c>
       <c r="B88" s="8" t="inlineStr">
         <is>
@@ -2815,24 +2819,24 @@
       </c>
       <c r="C88" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>08-09-2025 08:11:46</t>
         </is>
       </c>
       <c r="D88" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>08-09-2025 08:51:46</t>
         </is>
       </c>
       <c r="E88" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="8" t="n">
-        <v>252664</v>
+        <v>250284</v>
       </c>
       <c r="B89" s="8" t="inlineStr">
         <is>
@@ -2841,18 +2845,16 @@
       </c>
       <c r="C89" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 13:55:51</t>
+          <t>08-09-2025 10:14:45</t>
         </is>
       </c>
       <c r="D89" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 14:30:51</t>
-        </is>
-      </c>
-      <c r="E89" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 10:54:45</t>
+        </is>
+      </c>
+      <c r="E89" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F89" s="8" t="n">
         <v>7</v>
@@ -2860,7 +2862,7 @@
     </row>
     <row r="90">
       <c r="A90" s="8" t="n">
-        <v>253267</v>
+        <v>253686</v>
       </c>
       <c r="B90" s="8" t="inlineStr">
         <is>
@@ -2869,24 +2871,24 @@
       </c>
       <c r="C90" s="8" t="inlineStr">
         <is>
-          <t>08-09-2025 12:36:49</t>
+          <t>08-09-2025 13:21:06</t>
         </is>
       </c>
       <c r="D90" s="8" t="inlineStr">
         <is>
-          <t>08-09-2025 13:11:49</t>
+          <t>08-09-2025 14:01:06</t>
         </is>
       </c>
       <c r="E90" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F90" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="8" t="n">
-        <v>250284</v>
+        <v>253687</v>
       </c>
       <c r="B91" s="8" t="inlineStr">
         <is>
@@ -2895,24 +2897,24 @@
       </c>
       <c r="C91" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:56:11</t>
+          <t>08-09-2025 14:45:20</t>
         </is>
       </c>
       <c r="D91" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:41:11</t>
+          <t>09-09-2025 07:10:20</t>
         </is>
       </c>
       <c r="E91" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F91" s="8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="8" t="n">
-        <v>253359</v>
+        <v>253659</v>
       </c>
       <c r="B92" s="8" t="inlineStr">
         <is>
@@ -2921,12 +2923,12 @@
       </c>
       <c r="C92" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 11:07:32</t>
+          <t>09-09-2025 07:54:34</t>
         </is>
       </c>
       <c r="D92" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 11:57:32</t>
+          <t>09-09-2025 08:19:34</t>
         </is>
       </c>
       <c r="E92" s="8" t="n">
@@ -2938,7 +2940,7 @@
     </row>
     <row r="93">
       <c r="A93" s="8" t="n">
-        <v>253245</v>
+        <v>253706</v>
       </c>
       <c r="B93" s="8" t="inlineStr">
         <is>
@@ -2947,19 +2949,19 @@
       </c>
       <c r="C93" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:33</t>
+          <t>09-09-2025 13:43:19</t>
         </is>
       </c>
       <c r="D93" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 14:41:33</t>
+          <t>09-09-2025 14:28:19</t>
         </is>
       </c>
       <c r="E93" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F93" s="8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">

--- a/PS-VRP/Dati_output/schedulazione_ridotta.xlsx
+++ b/PS-VRP/Dati_output/schedulazione_ridotta.xlsx
@@ -38,26 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,14 +56,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D9D2E9"/>
         <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -602,7 +602,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>254293</v>
+        <v>252061</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -616,14 +616,16 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 07:16:35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
+          <t>14-11-2025 07:14:35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -637,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 07:35:26</t>
+          <t>14-11-2025 07:50:45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 08:09:26</t>
+          <t>14-11-2025 08:22:45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -656,7 +658,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>243569</v>
+        <v>244023</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -665,24 +667,24 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 08:59:24</t>
+          <t>14-11-2025 09:12:43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 09:16:24</t>
+          <t>14-11-2025 09:46:43</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>252061</v>
+        <v>254256</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -691,26 +693,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 09:38:04</t>
+          <t>14-11-2025 09:55:01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 10:12:04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>14-11-2025 10:16:01</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>253382</v>
+        <v>254375</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -719,12 +719,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 10:48:14</t>
+          <t>14-11-2025 11:06:57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 11:22:14</t>
+          <t>14-11-2025 11:23:57</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -736,7 +736,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>254256</v>
+        <v>254512</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -745,24 +745,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 12:47:20</t>
+          <t>14-11-2025 12:09:14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 13:21:20</t>
+          <t>14-11-2025 12:45:14</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>254375</v>
+        <v>255039</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -771,24 +771,24 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 14:12:16</t>
+          <t>14-11-2025 13:44:48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 14:29:16</t>
+          <t>14-11-2025 14:16:48</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>254512</v>
+        <v>254189</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -797,12 +797,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 07:14:33</t>
+          <t>14-11-2025 14:25:57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 07:50:33</t>
+          <t>14-11-2025 14:42:57</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -814,7 +814,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>255039</v>
+        <v>254230</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -823,24 +823,24 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 08:50:07</t>
+          <t>17-11-2025 07:38:49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 09:22:07</t>
+          <t>17-11-2025 07:53:49</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>254198</v>
+        <v>254433</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -849,24 +849,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 09:31:16</t>
+          <t>17-11-2025 08:56:18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 10:03:16</t>
+          <t>17-11-2025 09:11:18</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>254428</v>
+        <v>253838</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -875,26 +875,24 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 13:38:16</t>
+          <t>17-11-2025 10:19:09</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 14:12:16</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>17-11-2025 10:40:09</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>254173</v>
+        <v>253885</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -903,24 +901,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 07:00:34</t>
+          <t>17-11-2025 12:28:31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 07:28:34</t>
+          <t>17-11-2025 12:47:31</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>254599</v>
+        <v>254173</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -929,19 +927,19 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 10:51:10</t>
+          <t>17-11-2025 14:33:27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 11:29:10</t>
+          <t>18-11-2025 07:09:27</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -955,12 +953,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 12:14:04</t>
+          <t>18-11-2025 10:32:02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 12:31:04</t>
+          <t>18-11-2025 11:12:02</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
@@ -972,7 +970,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>254758</v>
+        <v>254653</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -981,106 +979,102 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 13:10:05</t>
+          <t>18-11-2025 11:51:04</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 13:27:05</t>
+          <t>18-11-2025 12:08:04</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>254915</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18-11-2025 13:12:28</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18-11-2025 13:31:28</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>254339</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>18-11-2025 14:20:21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18-11-2025 14:41:21</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>254671</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>19-11-2025 10:47:19</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>19-11-2025 11:06:19</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>254165</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:42:00</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>254156</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 08:40:19</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 09:05:19</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>254609</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 10:32:47</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 11:20:47</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>254437</v>
+        <v>254165</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -1089,24 +1083,26 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 10:17:27</t>
+          <t>14-11-2025 07:00:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 11:05:27</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
+          <t>14-11-2025 07:42:00</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>254675</v>
+        <v>254156</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -1115,24 +1111,26 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 12:03:31</t>
+          <t>14-11-2025 08:40:19</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 12:45:31</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
+          <t>14-11-2025 09:05:19</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>254188</v>
+        <v>254106</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -1141,24 +1139,24 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>18-11-2025 07:19:28</t>
+          <t>14-11-2025 10:32:47</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>18-11-2025 08:01:28</t>
+          <t>14-11-2025 11:18:47</t>
         </is>
       </c>
       <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>254309</v>
+        <v>243569</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -1167,24 +1165,24 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18-11-2025 08:38:55</t>
+          <t>14-11-2025 13:06:26</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>18-11-2025 09:24:55</t>
+          <t>14-11-2025 13:48:26</t>
         </is>
       </c>
       <c r="E25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>254166</v>
+        <v>254276</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -1193,24 +1191,24 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 08:24:56</t>
+          <t>14-11-2025 14:10:06</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 09:06:56</t>
+          <t>14-11-2025 14:52:06</t>
         </is>
       </c>
       <c r="E26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>254419</v>
+        <v>253382</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -1219,24 +1217,24 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 09:45:47</t>
+          <t>17-11-2025 07:29:08</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 10:12:47</t>
+          <t>17-11-2025 08:11:08</t>
         </is>
       </c>
       <c r="E27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>254433</v>
+        <v>254188</v>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -1245,12 +1243,12 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 11:25:07</t>
+          <t>17-11-2025 09:36:14</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 11:54:07</t>
+          <t>17-11-2025 10:18:14</t>
         </is>
       </c>
       <c r="E28" s="3" t="n">
@@ -1262,7 +1260,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>254252</v>
+        <v>254107</v>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -1271,24 +1269,24 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 13:01:58</t>
+          <t>17-11-2025 10:55:41</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 13:30:58</t>
+          <t>17-11-2025 11:26:41</t>
         </is>
       </c>
       <c r="E29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>254547</v>
+        <v>254309</v>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -1297,19 +1295,19 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>20-11-2025 14:51:29</t>
+          <t>17-11-2025 14:21:44</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>21-11-2025 07:22:29</t>
+          <t>18-11-2025 07:07:44</t>
         </is>
       </c>
       <c r="E30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1340,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>254088</v>
+        <v>254546</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1356,19 +1354,19 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>14-11-2025 10:03:16</t>
+          <t>14-11-2025 09:55:16</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>253865</v>
+        <v>254609</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1377,24 +1375,24 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>17-11-2025 09:08:29</t>
+          <t>14-11-2025 11:44:41</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>17-11-2025 09:33:29</t>
+          <t>14-11-2025 12:22:41</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>254555</v>
+        <v>254675</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -1403,24 +1401,24 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>17-11-2025 11:30:15</t>
+          <t>17-11-2025 11:19:21</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>17-11-2025 12:02:15</t>
+          <t>17-11-2025 11:55:21</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>254457</v>
+        <v>254437</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -1429,12 +1427,12 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>17-11-2025 14:55:14</t>
+          <t>17-11-2025 14:29:18</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>18-11-2025 07:31:14</t>
+          <t>18-11-2025 07:01:18</t>
         </is>
       </c>
       <c r="E35" s="4" t="n">
@@ -1446,7 +1444,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>254107</v>
+        <v>254457</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -1455,102 +1453,108 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>18-11-2025 07:35:09</t>
+          <t>18-11-2025 07:59:22</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>18-11-2025 07:56:09</t>
+          <t>18-11-2025 08:14:22</t>
         </is>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>253885</v>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>18-11-2025 10:51:13</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:08:13</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>8</v>
+      <c r="A37" s="5" t="n">
+        <v>254481</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>13-11-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>13-11-2025 12:32:30</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>254903</v>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>18-11-2025 12:54:09</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>18-11-2025 13:13:09</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4" t="n">
+      <c r="A38" s="5" t="n">
+        <v>254762</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>13-11-2025 13:53:40</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>13-11-2025 14:28:10</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>253897</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:01</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:46:31</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>254653</v>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>19-11-2025 09:29:47</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>19-11-2025 09:46:47</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>254481</v>
+        <v>254824</v>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
@@ -1559,26 +1563,24 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>13-11-2025 12:00:00</t>
+          <t>14-11-2025 09:20:32</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>13-11-2025 12:32:30</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>14-11-2025 10:09:02</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>254762</v>
+        <v>254428</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
@@ -1587,12 +1589,12 @@
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
-          <t>13-11-2025 13:53:40</t>
+          <t>17-11-2025 14:37:16</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>13-11-2025 14:28:10</t>
+          <t>18-11-2025 07:11:46</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
@@ -1601,12 +1603,12 @@
         </is>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>253897</v>
+        <v>254893</v>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
@@ -1615,18 +1617,16 @@
       </c>
       <c r="C42" s="5" t="inlineStr">
         <is>
-          <t>14-11-2025 07:00:01</t>
+          <t>18-11-2025 08:00:04</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>14-11-2025 07:46:31</t>
-        </is>
-      </c>
-      <c r="E42" s="5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>18-11-2025 08:36:34</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>1</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>235572</v>
+        <v>250284</v>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
@@ -1643,734 +1643,736 @@
       </c>
       <c r="C43" s="5" t="inlineStr">
         <is>
-          <t>14-11-2025 09:20:32</t>
+          <t>18-11-2025 09:23:15</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>14-11-2025 10:03:02</t>
+          <t>18-11-2025 10:03:45</t>
         </is>
       </c>
       <c r="E43" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>253694</v>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>13-11-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>13-11-2025 12:45:00</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>254556</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>13-11-2025 14:46:45</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:16:45</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>254283</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:10:10</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:55:10</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>254291</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 12:30:56</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 13:10:56</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>254460</v>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 13:29:47</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:04:47</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>254198</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:51:28</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 07:36:28</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>254237</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:11:28</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 12:11:28</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>253865</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 07:15:34</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 07:50:34</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>254599</v>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 09:47:19</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:17:19</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="5" t="n">
-        <v>254546</v>
-      </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>14-11-2025 11:26:01</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>14-11-2025 11:58:31</t>
-        </is>
-      </c>
-      <c r="E44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5" t="n">
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>254293</v>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:02:13</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:37:13</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="5" t="n">
-        <v>254824</v>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="inlineStr">
-        <is>
-          <t>14-11-2025 13:47:56</t>
-        </is>
-      </c>
-      <c r="D45" s="5" t="inlineStr">
-        <is>
-          <t>14-11-2025 14:22:26</t>
-        </is>
-      </c>
-      <c r="E45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5" t="n">
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>253614</v>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:56:04</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 12:46:04</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6" t="n">
-        <v>253694</v>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>254758</v>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>13-11-2025 12:00:00</t>
-        </is>
-      </c>
-      <c r="D46" s="6" t="inlineStr">
-        <is>
-          <t>13-11-2025 12:45:00</t>
-        </is>
-      </c>
-      <c r="E46" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F46" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="n">
-        <v>254556</v>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>18-11-2025 14:48:31</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>19-11-2025 07:28:31</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>254166</v>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>13-11-2025 14:46:45</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:16:45</t>
-        </is>
-      </c>
-      <c r="E47" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F47" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="n">
-        <v>254291</v>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>14-11-2025 10:10:10</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
-        <is>
-          <t>14-11-2025 10:50:10</t>
-        </is>
-      </c>
-      <c r="E48" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6" t="n">
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>19-11-2025 08:29:54</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>19-11-2025 08:59:54</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="n">
-        <v>254365</v>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>14-11-2025 11:09:01</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>14-11-2025 11:39:01</t>
-        </is>
-      </c>
-      <c r="E49" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n">
-        <v>254283</v>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>14-11-2025 12:46:33</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>14-11-2025 13:41:33</t>
-        </is>
-      </c>
-      <c r="E50" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="n">
-        <v>254106</v>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>17-11-2025 07:17:19</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
-        <is>
-          <t>17-11-2025 07:57:19</t>
-        </is>
-      </c>
-      <c r="E51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n">
-        <v>254276</v>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>17-11-2025 09:44:58</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>17-11-2025 10:24:58</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="n">
-        <v>253838</v>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>17-11-2025 11:02:00</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
-        <is>
-          <t>17-11-2025 11:32:00</t>
-        </is>
-      </c>
-      <c r="E53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n">
-        <v>254237</v>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>17-11-2025 13:20:22</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
-        <is>
-          <t>17-11-2025 13:55:22</t>
-        </is>
-      </c>
-      <c r="E54" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F54" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>254381</v>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>18-11-2025 08:59:27</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>18-11-2025 09:44:27</t>
-        </is>
-      </c>
-      <c r="E55" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6" t="n">
-        <v>254230</v>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:08:19</t>
-        </is>
-      </c>
-      <c r="D56" s="6" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:38:19</t>
-        </is>
-      </c>
-      <c r="E56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="6" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>244023</v>
+        <v>254714</v>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>18-11-2025 12:40:48</t>
+          <t>14-11-2025 07:00:00</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>18-11-2025 13:25:48</t>
-        </is>
-      </c>
-      <c r="E57" s="6" t="n">
-        <v>0</v>
+          <t>14-11-2025 07:19:00</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>254189</v>
+        <v>254365</v>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>18-11-2025 13:34:06</t>
+          <t>14-11-2025 08:50:28</t>
         </is>
       </c>
       <c r="D58" s="6" t="inlineStr">
         <is>
-          <t>18-11-2025 14:19:06</t>
+          <t>14-11-2025 09:28:28</t>
         </is>
       </c>
       <c r="E58" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>253614</v>
+        <v>253650</v>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>19-11-2025 07:14:59</t>
+          <t>14-11-2025 10:36:00</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>19-11-2025 07:54:59</t>
+          <t>14-11-2025 11:10:00</t>
         </is>
       </c>
       <c r="E59" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n">
-        <v>254910</v>
+        <v>254555</v>
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>19-11-2025 09:57:26</t>
+          <t>17-11-2025 07:43:08</t>
         </is>
       </c>
       <c r="D60" s="6" t="inlineStr">
         <is>
-          <t>19-11-2025 10:37:26</t>
+          <t>17-11-2025 08:00:08</t>
         </is>
       </c>
       <c r="E60" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="n">
-        <v>254339</v>
+        <v>254451</v>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>19-11-2025 11:50:58</t>
+          <t>17-11-2025 10:53:07</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>19-11-2025 12:30:58</t>
+          <t>17-11-2025 11:25:07</t>
         </is>
       </c>
       <c r="E61" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F61" s="6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="n">
-        <v>254101</v>
+        <v>254598</v>
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" s="6" t="inlineStr">
         <is>
-          <t>20-11-2025 08:36:56</t>
+          <t>18-11-2025 08:46:16</t>
         </is>
       </c>
       <c r="D62" s="6" t="inlineStr">
         <is>
-          <t>20-11-2025 09:06:56</t>
+          <t>18-11-2025 09:21:16</t>
         </is>
       </c>
       <c r="E62" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F62" s="6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="n">
+        <v>254941</v>
+      </c>
+      <c r="B63" s="7" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C63" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D63" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:45:00</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="n">
+        <v>254429</v>
+      </c>
+      <c r="B64" s="7" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C64" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 08:20:30</t>
+        </is>
+      </c>
+      <c r="D64" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 08:55:30</t>
+        </is>
+      </c>
+      <c r="E64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="6" t="n">
-        <v>253974</v>
-      </c>
-      <c r="B63" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C63" s="6" t="inlineStr">
-        <is>
-          <t>20-11-2025 09:35:21</t>
-        </is>
-      </c>
-      <c r="D63" s="6" t="inlineStr">
-        <is>
-          <t>20-11-2025 10:00:21</t>
-        </is>
-      </c>
-      <c r="E63" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="6" t="n">
-        <v>254354</v>
-      </c>
-      <c r="B64" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C64" s="6" t="inlineStr">
-        <is>
-          <t>20-11-2025 10:28:47</t>
-        </is>
-      </c>
-      <c r="D64" s="6" t="inlineStr">
-        <is>
-          <t>20-11-2025 10:58:47</t>
-        </is>
-      </c>
-      <c r="E64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
     <row r="65">
-      <c r="A65" s="6" t="n">
-        <v>254671</v>
-      </c>
-      <c r="B65" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C65" s="6" t="inlineStr">
-        <is>
-          <t>20-11-2025 11:17:27</t>
-        </is>
-      </c>
-      <c r="D65" s="6" t="inlineStr">
-        <is>
-          <t>20-11-2025 11:52:27</t>
-        </is>
-      </c>
-      <c r="E65" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="6" t="n">
-        <v>1</v>
+      <c r="A65" s="7" t="n">
+        <v>235572</v>
+      </c>
+      <c r="B65" s="7" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C65" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 12:55:44</t>
+        </is>
+      </c>
+      <c r="D65" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 13:20:44</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="n">
-        <v>253906</v>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C66" s="6" t="inlineStr">
-        <is>
-          <t>20-11-2025 14:08:37</t>
-        </is>
-      </c>
-      <c r="D66" s="6" t="inlineStr">
-        <is>
-          <t>20-11-2025 14:58:37</t>
-        </is>
-      </c>
-      <c r="E66" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="6" t="n">
+      <c r="A66" s="7" t="n">
+        <v>254381</v>
+      </c>
+      <c r="B66" s="7" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C66" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:43:43</t>
+        </is>
+      </c>
+      <c r="D66" s="7" t="inlineStr">
+        <is>
+          <t>17-11-2025 07:18:43</t>
+        </is>
+      </c>
+      <c r="E66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="n">
-        <v>254714</v>
+        <v>254519</v>
       </c>
       <c r="B67" s="7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>14-11-2025 07:00:00</t>
+          <t>17-11-2025 08:42:35</t>
         </is>
       </c>
       <c r="D67" s="7" t="inlineStr">
         <is>
-          <t>14-11-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="E67" s="7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>17-11-2025 09:17:35</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="n">
-        <v>254598</v>
+        <v>254586</v>
       </c>
       <c r="B68" s="7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>14-11-2025 08:50:28</t>
+          <t>17-11-2025 10:34:45</t>
         </is>
       </c>
       <c r="D68" s="7" t="inlineStr">
         <is>
-          <t>14-11-2025 09:36:28</t>
+          <t>17-11-2025 11:09:45</t>
         </is>
       </c>
       <c r="E68" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="n">
-        <v>254519</v>
+        <v>254088</v>
       </c>
       <c r="B69" s="7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>14-11-2025 11:20:44</t>
+          <t>17-11-2025 12:01:17</t>
         </is>
       </c>
       <c r="D69" s="7" t="inlineStr">
         <is>
-          <t>14-11-2025 11:55:44</t>
+          <t>17-11-2025 12:41:17</t>
         </is>
       </c>
       <c r="E69" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="n">
-        <v>254915</v>
+        <v>254903</v>
       </c>
       <c r="B70" s="7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>14-11-2025 13:12:53</t>
+          <t>18-11-2025 11:46:30</t>
         </is>
       </c>
       <c r="D70" s="7" t="inlineStr">
         <is>
-          <t>14-11-2025 13:29:53</t>
+          <t>18-11-2025 12:26:30</t>
         </is>
       </c>
       <c r="E70" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="n">
-        <v>254941</v>
+        <v>254419</v>
       </c>
       <c r="B71" s="7" t="inlineStr">
         <is>
@@ -2379,208 +2381,210 @@
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
+          <t>19-11-2025 08:43:09</t>
+        </is>
+      </c>
+      <c r="D71" s="7" t="inlineStr">
+        <is>
+          <t>19-11-2025 09:13:09</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="n">
+        <v>254715</v>
+      </c>
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C72" s="8" t="inlineStr">
+        <is>
           <t>14-11-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D71" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:45:00</t>
-        </is>
-      </c>
-      <c r="E71" s="7" t="inlineStr">
+      <c r="D72" s="8" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E72" s="8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F71" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="7" t="n">
-        <v>253650</v>
-      </c>
-      <c r="B72" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C72" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 08:20:30</t>
-        </is>
-      </c>
-      <c r="D72" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 08:55:30</t>
-        </is>
-      </c>
-      <c r="E72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7" t="n">
+      <c r="F72" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="n">
-        <v>254429</v>
-      </c>
-      <c r="B73" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C73" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 13:28:38</t>
-        </is>
-      </c>
-      <c r="D73" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 14:08:38</t>
-        </is>
-      </c>
-      <c r="E73" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7" t="n">
-        <v>2</v>
+      <c r="A73" s="8" t="n">
+        <v>254287</v>
+      </c>
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C73" s="8" t="inlineStr">
+        <is>
+          <t>14-11-2025 09:49:32</t>
+        </is>
+      </c>
+      <c r="D73" s="8" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:24:32</t>
+        </is>
+      </c>
+      <c r="E73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="n">
-        <v>250284</v>
-      </c>
-      <c r="B74" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C74" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 10:08:52</t>
-        </is>
-      </c>
-      <c r="D74" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 10:48:52</t>
-        </is>
-      </c>
-      <c r="E74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7" t="n">
+      <c r="A74" s="8" t="n">
+        <v>254427</v>
+      </c>
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="inlineStr">
+        <is>
+          <t>14-11-2025 12:34:10</t>
+        </is>
+      </c>
+      <c r="D74" s="8" t="inlineStr">
+        <is>
+          <t>14-11-2025 13:14:10</t>
+        </is>
+      </c>
+      <c r="E74" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F74" s="8" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="n">
-        <v>254652</v>
-      </c>
-      <c r="B75" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C75" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 13:15:13</t>
-        </is>
-      </c>
-      <c r="D75" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 14:00:13</t>
-        </is>
-      </c>
-      <c r="E75" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7" t="n">
-        <v>8</v>
+      <c r="A75" s="8" t="n">
+        <v>254574</v>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:09:44</t>
+        </is>
+      </c>
+      <c r="D75" s="8" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:49:44</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="n">
-        <v>254451</v>
-      </c>
-      <c r="B76" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C76" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 14:28:57</t>
-        </is>
-      </c>
-      <c r="D76" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 14:58:57</t>
-        </is>
-      </c>
-      <c r="E76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7" t="n">
-        <v>1</v>
+      <c r="A76" s="8" t="n">
+        <v>254245</v>
+      </c>
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C76" s="8" t="inlineStr">
+        <is>
+          <t>17-11-2025 09:43:20</t>
+        </is>
+      </c>
+      <c r="D76" s="8" t="inlineStr">
+        <is>
+          <t>17-11-2025 10:13:20</t>
+        </is>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="n">
-        <v>254756</v>
-      </c>
-      <c r="B77" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C77" s="7" t="inlineStr">
-        <is>
-          <t>18-11-2025 12:20:06</t>
-        </is>
-      </c>
-      <c r="D77" s="7" t="inlineStr">
-        <is>
-          <t>18-11-2025 13:15:06</t>
-        </is>
-      </c>
-      <c r="E77" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7" t="n">
-        <v>7</v>
+      <c r="A77" s="8" t="n">
+        <v>254356</v>
+      </c>
+      <c r="B77" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C77" s="8" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:43:08</t>
+        </is>
+      </c>
+      <c r="D77" s="8" t="inlineStr">
+        <is>
+          <t>17-11-2025 12:08:08</t>
+        </is>
+      </c>
+      <c r="E77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="n">
-        <v>254100</v>
-      </c>
-      <c r="B78" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C78" s="7" t="inlineStr">
-        <is>
-          <t>18-11-2025 14:15:43</t>
-        </is>
-      </c>
-      <c r="D78" s="7" t="inlineStr">
-        <is>
-          <t>18-11-2025 14:55:43</t>
-        </is>
-      </c>
-      <c r="E78" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7" t="n">
-        <v>2</v>
+      <c r="A78" s="8" t="n">
+        <v>253961</v>
+      </c>
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C78" s="8" t="inlineStr">
+        <is>
+          <t>18-11-2025 07:07:44</t>
+        </is>
+      </c>
+      <c r="D78" s="8" t="inlineStr">
+        <is>
+          <t>18-11-2025 07:32:44</t>
+        </is>
+      </c>
+      <c r="E78" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="n">
-        <v>254715</v>
+        <v>252811</v>
       </c>
       <c r="B79" s="8" t="inlineStr">
         <is>
@@ -2589,26 +2593,24 @@
       </c>
       <c r="C79" s="8" t="inlineStr">
         <is>
-          <t>14-11-2025 07:00:00</t>
+          <t>18-11-2025 08:08:39</t>
         </is>
       </c>
       <c r="D79" s="8" t="inlineStr">
         <is>
-          <t>14-11-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="E79" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>18-11-2025 08:38:39</t>
+        </is>
+      </c>
+      <c r="E79" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F79" s="8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="8" t="n">
-        <v>254287</v>
+        <v>254651</v>
       </c>
       <c r="B80" s="8" t="inlineStr">
         <is>
@@ -2617,24 +2619,24 @@
       </c>
       <c r="C80" s="8" t="inlineStr">
         <is>
-          <t>14-11-2025 09:49:32</t>
+          <t>18-11-2025 08:50:32</t>
         </is>
       </c>
       <c r="D80" s="8" t="inlineStr">
         <is>
-          <t>14-11-2025 10:24:32</t>
+          <t>18-11-2025 09:25:32</t>
         </is>
       </c>
       <c r="E80" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F80" s="8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="8" t="n">
-        <v>254427</v>
+        <v>254652</v>
       </c>
       <c r="B81" s="8" t="inlineStr">
         <is>
@@ -2643,26 +2645,24 @@
       </c>
       <c r="C81" s="8" t="inlineStr">
         <is>
-          <t>14-11-2025 12:34:10</t>
+          <t>18-11-2025 09:48:10</t>
         </is>
       </c>
       <c r="D81" s="8" t="inlineStr">
         <is>
-          <t>14-11-2025 13:14:10</t>
-        </is>
-      </c>
-      <c r="E81" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>18-11-2025 10:18:10</t>
+        </is>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F81" s="8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="8" t="n">
-        <v>254574</v>
+        <v>254756</v>
       </c>
       <c r="B82" s="8" t="inlineStr">
         <is>
@@ -2671,12 +2671,12 @@
       </c>
       <c r="C82" s="8" t="inlineStr">
         <is>
-          <t>14-11-2025 14:09:44</t>
+          <t>18-11-2025 10:46:54</t>
         </is>
       </c>
       <c r="D82" s="8" t="inlineStr">
         <is>
-          <t>14-11-2025 14:49:44</t>
+          <t>18-11-2025 11:36:54</t>
         </is>
       </c>
       <c r="E82" s="8" t="n">
@@ -2688,7 +2688,7 @@
     </row>
     <row r="83">
       <c r="A83" s="8" t="n">
-        <v>254460</v>
+        <v>254910</v>
       </c>
       <c r="B83" s="8" t="inlineStr">
         <is>
@@ -2697,24 +2697,24 @@
       </c>
       <c r="C83" s="8" t="inlineStr">
         <is>
-          <t>17-11-2025 09:43:20</t>
+          <t>18-11-2025 12:37:32</t>
         </is>
       </c>
       <c r="D83" s="8" t="inlineStr">
         <is>
-          <t>17-11-2025 10:13:20</t>
+          <t>18-11-2025 13:32:32</t>
         </is>
       </c>
       <c r="E83" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="8" t="n">
-        <v>254245</v>
+        <v>254101</v>
       </c>
       <c r="B84" s="8" t="inlineStr">
         <is>
@@ -2723,24 +2723,24 @@
       </c>
       <c r="C84" s="8" t="inlineStr">
         <is>
-          <t>17-11-2025 11:00:01</t>
+          <t>18-11-2025 14:46:04</t>
         </is>
       </c>
       <c r="D84" s="8" t="inlineStr">
         <is>
-          <t>17-11-2025 11:40:01</t>
+          <t>19-11-2025 07:26:04</t>
         </is>
       </c>
       <c r="E84" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="8" t="n">
-        <v>254356</v>
+        <v>254100</v>
       </c>
       <c r="B85" s="8" t="inlineStr">
         <is>
@@ -2749,24 +2749,24 @@
       </c>
       <c r="C85" s="8" t="inlineStr">
         <is>
-          <t>17-11-2025 13:09:49</t>
+          <t>19-11-2025 07:54:29</t>
         </is>
       </c>
       <c r="D85" s="8" t="inlineStr">
         <is>
-          <t>17-11-2025 13:34:49</t>
+          <t>19-11-2025 08:19:29</t>
         </is>
       </c>
       <c r="E85" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F85" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="n">
-        <v>253961</v>
+        <v>254252</v>
       </c>
       <c r="B86" s="8" t="inlineStr">
         <is>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C86" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 08:34:25</t>
+          <t>19-11-2025 08:47:55</t>
         </is>
       </c>
       <c r="D86" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 08:59:25</t>
+          <t>19-11-2025 09:22:55</t>
         </is>
       </c>
       <c r="E86" s="8" t="n">
@@ -2792,7 +2792,7 @@
     </row>
     <row r="87">
       <c r="A87" s="8" t="n">
-        <v>252811</v>
+        <v>254354</v>
       </c>
       <c r="B87" s="8" t="inlineStr">
         <is>
@@ -2801,24 +2801,24 @@
       </c>
       <c r="C87" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 09:35:20</t>
+          <t>19-11-2025 10:43:26</t>
         </is>
       </c>
       <c r="D87" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 10:05:20</t>
+          <t>19-11-2025 11:13:26</t>
         </is>
       </c>
       <c r="E87" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F87" s="8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="8" t="n">
-        <v>254651</v>
+        <v>253906</v>
       </c>
       <c r="B88" s="8" t="inlineStr">
         <is>
@@ -2827,148 +2827,96 @@
       </c>
       <c r="C88" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 10:17:13</t>
+          <t>19-11-2025 11:32:06</t>
         </is>
       </c>
       <c r="D88" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 10:52:13</t>
+          <t>19-11-2025 12:12:06</t>
         </is>
       </c>
       <c r="E88" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="n">
-        <v>254586</v>
-      </c>
-      <c r="B89" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C89" s="8" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:14:51</t>
-        </is>
-      </c>
-      <c r="D89" s="8" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:49:51</t>
-        </is>
-      </c>
-      <c r="E89" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8" t="n">
+      <c r="A89" s="4" t="n">
+        <v>254521</v>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>12-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>12-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="E89" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="n">
+        <v>254117</v>
+      </c>
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="E90" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="8" t="n">
-        <v>254893</v>
-      </c>
-      <c r="B90" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C90" s="8" t="inlineStr">
-        <is>
-          <t>18-11-2025 12:41:24</t>
-        </is>
-      </c>
-      <c r="D90" s="8" t="inlineStr">
-        <is>
-          <t>18-11-2025 13:06:24</t>
-        </is>
-      </c>
-      <c r="E90" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="91">
-      <c r="A91" s="6" t="n">
-        <v>254521</v>
-      </c>
-      <c r="B91" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C91" s="6" t="inlineStr">
-        <is>
-          <t>12-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D91" s="6" t="inlineStr">
-        <is>
-          <t>12-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="E91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" s="6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="n">
-        <v>254117</v>
-      </c>
-      <c r="B92" s="9" t="inlineStr">
+      <c r="A91" s="9" t="n">
+        <v>252980</v>
+      </c>
+      <c r="B91" s="9" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C92" s="9" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D92" s="9" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="E92" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="9" t="n">
-        <v>252980</v>
-      </c>
-      <c r="B93" s="9" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C93" s="9" t="inlineStr">
+      <c r="C91" s="9" t="inlineStr">
         <is>
           <t>14-11-2025 07:09:10</t>
         </is>
       </c>
-      <c r="D93" s="9" t="inlineStr">
+      <c r="D91" s="9" t="inlineStr">
         <is>
           <t>14-11-2025 07:09:10</t>
         </is>
       </c>
-      <c r="E93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" s="9" t="n">
+      <c r="E91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/schedulazione_ridotta.xlsx
+++ b/PS-VRP/Dati_output/schedulazione_ridotta.xlsx
@@ -38,8 +38,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,26 +62,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -602,7 +602,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>252061</v>
+        <v>254713</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 07:14:35</t>
+          <t>14-11-2025 07:12:35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>254713</v>
+        <v>243569</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -639,18 +639,16 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 07:50:45</t>
+          <t>14-11-2025 08:02:33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 08:22:45</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>14-11-2025 08:19:33</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>2</v>
@@ -658,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>244023</v>
+        <v>254675</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -667,12 +665,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 09:12:43</t>
+          <t>14-11-2025 08:41:13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 09:46:43</t>
+          <t>14-11-2025 09:00:13</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -684,7 +682,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>254256</v>
+        <v>254546</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -693,24 +691,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 09:55:01</t>
+          <t>14-11-2025 11:34:11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 10:16:01</t>
+          <t>14-11-2025 12:06:11</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>254375</v>
+        <v>244023</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -719,24 +717,24 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 11:06:57</t>
+          <t>14-11-2025 13:55:35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 11:23:57</t>
+          <t>14-11-2025 14:14:35</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>254512</v>
+        <v>254256</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -745,24 +743,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 12:09:14</t>
+          <t>14-11-2025 14:22:54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 12:45:14</t>
+          <t>14-11-2025 14:43:54</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>255039</v>
+        <v>254375</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -771,24 +769,24 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 13:44:48</t>
+          <t>17-11-2025 07:34:49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 14:16:48</t>
+          <t>17-11-2025 07:51:49</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>254189</v>
+        <v>254512</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -797,12 +795,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 14:25:57</t>
+          <t>17-11-2025 08:37:07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14-11-2025 14:42:57</t>
+          <t>17-11-2025 09:13:07</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -814,7 +812,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>254230</v>
+        <v>254188</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -823,24 +821,24 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 07:38:49</t>
+          <t>17-11-2025 10:12:40</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 07:53:49</t>
+          <t>17-11-2025 10:48:40</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>254433</v>
+        <v>255039</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -849,24 +847,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 08:56:18</t>
+          <t>17-11-2025 11:26:07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 09:11:18</t>
+          <t>17-11-2025 11:43:07</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>253838</v>
+        <v>254230</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -875,24 +873,24 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 10:19:09</t>
+          <t>17-11-2025 11:52:16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 10:40:09</t>
+          <t>17-11-2025 12:09:16</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>253885</v>
+        <v>254198</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -901,19 +899,19 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 12:28:31</t>
+          <t>17-11-2025 13:11:44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 12:47:31</t>
+          <t>17-11-2025 13:43:44</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -927,12 +925,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17-11-2025 14:33:27</t>
+          <t>18-11-2025 09:18:44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 07:09:27</t>
+          <t>18-11-2025 09:52:44</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
@@ -944,7 +942,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>254605</v>
+        <v>254652</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -953,24 +951,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 10:32:02</t>
+          <t>18-11-2025 13:15:20</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 11:12:02</t>
+          <t>18-11-2025 13:53:20</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>254653</v>
+        <v>254605</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -979,24 +977,24 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 11:51:04</t>
+          <t>18-11-2025 14:22:04</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 12:08:04</t>
+          <t>18-11-2025 14:39:04</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>254915</v>
+        <v>254653</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -1005,12 +1003,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 13:12:28</t>
+          <t>19-11-2025 07:18:05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18-11-2025 13:31:28</t>
+          <t>19-11-2025 07:35:05</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
@@ -1021,60 +1019,64 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>254339</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>18-11-2025 14:20:21</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>18-11-2025 14:41:21</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="A20" s="3" t="n">
+        <v>254165</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:42:00</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>254671</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>19-11-2025 10:47:19</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>19-11-2025 11:06:19</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>1</v>
+      <c r="A21" s="3" t="n">
+        <v>254156</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 08:40:19</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 09:05:19</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>254165</v>
+        <v>253382</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -1083,26 +1085,24 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 07:00:00</t>
+          <t>14-11-2025 10:32:47</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 07:42:00</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>14-11-2025 10:59:47</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>254156</v>
+        <v>254451</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -1111,26 +1111,24 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 08:40:19</t>
+          <t>14-11-2025 12:24:53</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 09:05:19</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>14-11-2025 13:08:53</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>254106</v>
+        <v>254309</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -1139,24 +1137,24 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 10:32:47</t>
+          <t>17-11-2025 10:30:02</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 11:18:47</t>
+          <t>17-11-2025 11:12:02</t>
         </is>
       </c>
       <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>243569</v>
+        <v>254252</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -1165,24 +1163,24 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 13:06:26</t>
+          <t>19-11-2025 10:12:03</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 13:48:26</t>
+          <t>19-11-2025 10:58:03</t>
         </is>
       </c>
       <c r="E25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>254276</v>
+        <v>254419</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -1191,24 +1189,24 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 14:10:06</t>
+          <t>19-11-2025 12:18:34</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>14-11-2025 14:52:06</t>
+          <t>19-11-2025 12:49:34</t>
         </is>
       </c>
       <c r="E26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>253382</v>
+        <v>253974</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -1217,12 +1215,12 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 07:29:08</t>
+          <t>19-11-2025 14:01:54</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 08:11:08</t>
+          <t>19-11-2025 14:30:54</t>
         </is>
       </c>
       <c r="E27" s="3" t="n">
@@ -1234,7 +1232,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>254188</v>
+        <v>254547</v>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -1243,24 +1241,24 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 09:36:14</t>
+          <t>19-11-2025 14:59:20</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 10:18:14</t>
+          <t>20-11-2025 07:28:20</t>
         </is>
       </c>
       <c r="E28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>254107</v>
+        <v>254166</v>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -1269,12 +1267,12 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 10:55:41</t>
+          <t>20-11-2025 08:36:53</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>17-11-2025 11:26:41</t>
+          <t>20-11-2025 09:03:53</t>
         </is>
       </c>
       <c r="E29" s="3" t="n">
@@ -1285,34 +1283,36 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>254309</v>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>17-11-2025 14:21:44</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 07:07:44</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>1</v>
+      <c r="A30" s="4" t="n">
+        <v>253380</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:46:00</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>253380</v>
+        <v>250284</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1321,18 +1321,16 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>14-11-2025 07:00:00</t>
+          <t>14-11-2025 09:30:16</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>14-11-2025 07:46:00</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>14-11-2025 09:47:16</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>7</v>
@@ -1340,7 +1338,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>254546</v>
+        <v>254293</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1349,12 +1347,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>14-11-2025 09:30:16</t>
+          <t>14-11-2025 12:13:37</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>14-11-2025 09:55:16</t>
+          <t>14-11-2025 12:32:37</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1366,7 +1364,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>254609</v>
+        <v>254088</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1375,24 +1373,24 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>14-11-2025 11:44:41</t>
+          <t>14-11-2025 12:51:28</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>14-11-2025 12:22:41</t>
+          <t>14-11-2025 13:18:28</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>254675</v>
+        <v>254189</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -1401,12 +1399,12 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>17-11-2025 11:19:21</t>
+          <t>17-11-2025 12:23:41</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>17-11-2025 11:55:21</t>
+          <t>17-11-2025 12:42:41</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
@@ -1418,7 +1416,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>254437</v>
+        <v>254457</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -1427,12 +1425,12 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>17-11-2025 14:29:18</t>
+          <t>17-11-2025 13:38:34</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>18-11-2025 07:01:18</t>
+          <t>17-11-2025 13:57:34</t>
         </is>
       </c>
       <c r="E35" s="4" t="n">
@@ -1444,7 +1442,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>254457</v>
+        <v>254428</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -1453,1138 +1451,1136 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>18-11-2025 07:59:22</t>
+          <t>17-11-2025 14:01:29</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>18-11-2025 08:14:22</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>0</v>
+          <t>17-11-2025 14:24:29</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F36" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>254107</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>18-11-2025 07:12:48</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>18-11-2025 07:35:48</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>254599</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:30:51</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:51:51</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>254609</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:36:45</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>18-11-2025 12:14:45</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>254437</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>19-11-2025 11:11:25</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>19-11-2025 11:49:25</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5" t="n">
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>253885</v>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>19-11-2025 12:47:29</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>19-11-2025 13:04:29</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>254903</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>19-11-2025 14:50:25</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>20-11-2025 07:09:25</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>254758</v>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>20-11-2025 11:26:03</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>20-11-2025 11:43:03</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n">
         <v>254481</v>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>CASON</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>13-11-2025 12:00:00</t>
         </is>
       </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>13-11-2025 12:32:30</t>
         </is>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F44" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="n">
+    <row r="45">
+      <c r="A45" s="5" t="n">
         <v>254762</v>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>CASON</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>13-11-2025 13:53:40</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>13-11-2025 14:28:10</t>
         </is>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F45" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="n">
+    <row r="46">
+      <c r="A46" s="5" t="n">
         <v>253897</v>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>CASON</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>14-11-2025 07:00:01</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>14-11-2025 07:46:31</t>
         </is>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F46" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="5" t="n">
+    <row r="47">
+      <c r="A47" s="5" t="n">
+        <v>254291</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>14-11-2025 09:20:32</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:01:02</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n">
+        <v>252061</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:19:53</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:52:23</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>253694</v>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>13-11-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>13-11-2025 12:45:00</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>254556</v>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>13-11-2025 14:46:45</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:16:45</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>254283</v>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:10:10</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:55:10</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>253865</v>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>14-11-2025 12:30:56</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>14-11-2025 13:25:56</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>254106</v>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>17-11-2025 07:22:42</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>17-11-2025 07:52:42</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>253838</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>17-11-2025 09:40:20</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
+          <t>17-11-2025 10:10:20</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>254237</v>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:58:42</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>17-11-2025 12:33:42</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
         <v>254824</v>
       </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>14-11-2025 09:20:32</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>14-11-2025 10:09:02</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="n">
-        <v>254428</v>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>17-11-2025 14:37:16</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>18-11-2025 07:11:46</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F41" s="5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="n">
-        <v>254893</v>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>18-11-2025 08:00:04</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
-        <is>
-          <t>18-11-2025 08:36:34</t>
-        </is>
-      </c>
-      <c r="E42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="n">
-        <v>250284</v>
-      </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>18-11-2025 09:23:15</t>
-        </is>
-      </c>
-      <c r="D43" s="5" t="inlineStr">
-        <is>
-          <t>18-11-2025 10:03:45</t>
-        </is>
-      </c>
-      <c r="E43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>253694</v>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B56" s="6" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>13-11-2025 12:00:00</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>13-11-2025 12:45:00</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>254556</v>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>13-11-2025 14:46:45</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:16:45</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>254283</v>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 10:10:10</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 10:55:10</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>254291</v>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 12:30:56</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 13:10:56</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>254460</v>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 13:29:47</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 14:04:47</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>254198</v>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>14-11-2025 14:51:28</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>17-11-2025 07:36:28</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>254237</v>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>17-11-2025 11:11:28</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>17-11-2025 12:11:28</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="n">
-        <v>253865</v>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 07:15:34</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 07:50:34</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="n">
-        <v>254599</v>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 09:47:19</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 10:17:19</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="n">
-        <v>254293</v>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:02:13</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:37:13</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="n">
-        <v>253614</v>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:56:04</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 12:46:04</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="n">
-        <v>254758</v>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>18-11-2025 14:48:31</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>19-11-2025 07:28:31</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="n">
-        <v>254166</v>
-      </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>19-11-2025 08:29:54</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>19-11-2025 08:59:54</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3" t="n">
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>18-11-2025 07:37:48</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="inlineStr">
+        <is>
+          <t>18-11-2025 08:37:48</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>254714</v>
+        <v>253614</v>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>14-11-2025 07:00:00</t>
+          <t>19-11-2025 13:06:01</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>14-11-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="E57" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>19-11-2025 13:46:01</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>254365</v>
+        <v>254910</v>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>14-11-2025 08:50:28</t>
+          <t>20-11-2025 07:48:28</t>
         </is>
       </c>
       <c r="D58" s="6" t="inlineStr">
         <is>
-          <t>14-11-2025 09:28:28</t>
+          <t>20-11-2025 08:28:28</t>
         </is>
       </c>
       <c r="E58" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>253650</v>
+        <v>254433</v>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>14-11-2025 10:36:00</t>
+          <t>20-11-2025 09:42:00</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>14-11-2025 11:10:00</t>
+          <t>20-11-2025 10:27:00</t>
         </is>
       </c>
       <c r="E59" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n">
-        <v>254555</v>
+        <v>254339</v>
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>17-11-2025 07:43:08</t>
+          <t>20-11-2025 11:34:51</t>
         </is>
       </c>
       <c r="D60" s="6" t="inlineStr">
         <is>
-          <t>17-11-2025 08:00:08</t>
+          <t>20-11-2025 12:14:51</t>
         </is>
       </c>
       <c r="E60" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="n">
-        <v>254451</v>
+        <v>254101</v>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>17-11-2025 10:53:07</t>
+          <t>21-11-2025 08:20:49</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>17-11-2025 11:25:07</t>
+          <t>21-11-2025 08:50:49</t>
         </is>
       </c>
       <c r="E61" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F61" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="n">
+        <v>254100</v>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>21-11-2025 09:19:15</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="inlineStr">
+        <is>
+          <t>21-11-2025 09:44:15</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>254354</v>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>21-11-2025 10:12:40</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>21-11-2025 10:42:40</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>254671</v>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>21-11-2025 11:01:21</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="inlineStr">
+        <is>
+          <t>21-11-2025 11:36:21</t>
+        </is>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>253906</v>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>21-11-2025 13:52:31</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>21-11-2025 14:42:31</t>
+        </is>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>254714</v>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:19:00</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>253650</v>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 08:50:28</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 09:09:28</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>254519</v>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 13:42:36</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:16:36</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>254365</v>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 07:33:46</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 07:52:46</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
         <v>254598</v>
       </c>
-      <c r="B62" s="6" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C62" s="6" t="inlineStr">
-        <is>
-          <t>18-11-2025 08:46:16</t>
-        </is>
-      </c>
-      <c r="D62" s="6" t="inlineStr">
-        <is>
-          <t>18-11-2025 09:21:16</t>
-        </is>
-      </c>
-      <c r="E62" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="6" t="n">
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 09:00:18</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 09:31:18</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="7" t="n">
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>254915</v>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:15:33</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:52:33</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
         <v>254941</v>
       </c>
-      <c r="B63" s="7" t="inlineStr">
+      <c r="B72" s="7" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C63" s="7" t="inlineStr">
+      <c r="C72" s="7" t="inlineStr">
         <is>
           <t>14-11-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D63" s="7" t="inlineStr">
+      <c r="D72" s="7" t="inlineStr">
         <is>
           <t>14-11-2025 07:45:00</t>
         </is>
       </c>
-      <c r="E63" s="7" t="inlineStr">
+      <c r="E72" s="7" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F63" s="7" t="n">
+      <c r="F72" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="7" t="n">
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>254381</v>
+      </c>
+      <c r="B73" s="7" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C73" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 08:20:30</t>
+        </is>
+      </c>
+      <c r="D73" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 08:55:30</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
         <v>254429</v>
       </c>
-      <c r="B64" s="7" t="inlineStr">
+      <c r="B74" s="7" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C64" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 08:20:30</t>
-        </is>
-      </c>
-      <c r="D64" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 08:55:30</t>
-        </is>
-      </c>
-      <c r="E64" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7" t="n">
+      <c r="C74" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:19:22</t>
+        </is>
+      </c>
+      <c r="D74" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:54:22</t>
+        </is>
+      </c>
+      <c r="E74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="7" t="n">
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>254555</v>
+      </c>
+      <c r="B75" s="7" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C75" s="7" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:54:36</t>
+        </is>
+      </c>
+      <c r="D75" s="7" t="inlineStr">
+        <is>
+          <t>17-11-2025 07:29:36</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
         <v>235572</v>
       </c>
-      <c r="B65" s="7" t="inlineStr">
+      <c r="B76" s="7" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C65" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 12:55:44</t>
-        </is>
-      </c>
-      <c r="D65" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 13:20:44</t>
-        </is>
-      </c>
-      <c r="E65" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="n">
+      <c r="C76" s="7" t="inlineStr">
+        <is>
+          <t>17-11-2025 10:22:35</t>
+        </is>
+      </c>
+      <c r="D76" s="7" t="inlineStr">
+        <is>
+          <t>17-11-2025 10:57:35</t>
+        </is>
+      </c>
+      <c r="E76" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="7" t="n">
-        <v>254381</v>
-      </c>
-      <c r="B66" s="7" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>254276</v>
+      </c>
+      <c r="B77" s="7" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C66" s="7" t="inlineStr">
-        <is>
-          <t>14-11-2025 14:43:43</t>
-        </is>
-      </c>
-      <c r="D66" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 07:18:43</t>
-        </is>
-      </c>
-      <c r="E66" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7" t="n">
+      <c r="C77" s="7" t="inlineStr">
+        <is>
+          <t>17-11-2025 12:20:34</t>
+        </is>
+      </c>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>17-11-2025 12:50:34</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n">
+        <v>254756</v>
+      </c>
+      <c r="B78" s="7" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C78" s="7" t="inlineStr">
+        <is>
+          <t>17-11-2025 13:27:36</t>
+        </is>
+      </c>
+      <c r="D78" s="7" t="inlineStr">
+        <is>
+          <t>17-11-2025 14:17:36</t>
+        </is>
+      </c>
+      <c r="E78" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="7" t="n">
-        <v>254519</v>
-      </c>
-      <c r="B67" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C67" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 08:42:35</t>
-        </is>
-      </c>
-      <c r="D67" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 09:17:35</t>
-        </is>
-      </c>
-      <c r="E67" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="7" t="n">
-        <v>254586</v>
-      </c>
-      <c r="B68" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C68" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 10:34:45</t>
-        </is>
-      </c>
-      <c r="D68" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 11:09:45</t>
-        </is>
-      </c>
-      <c r="E68" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="7" t="n">
-        <v>254088</v>
-      </c>
-      <c r="B69" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C69" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 12:01:17</t>
-        </is>
-      </c>
-      <c r="D69" s="7" t="inlineStr">
-        <is>
-          <t>17-11-2025 12:41:17</t>
-        </is>
-      </c>
-      <c r="E69" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="7" t="n">
-        <v>254903</v>
-      </c>
-      <c r="B70" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C70" s="7" t="inlineStr">
-        <is>
-          <t>18-11-2025 11:46:30</t>
-        </is>
-      </c>
-      <c r="D70" s="7" t="inlineStr">
-        <is>
-          <t>18-11-2025 12:26:30</t>
-        </is>
-      </c>
-      <c r="E70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="7" t="n">
-        <v>254419</v>
-      </c>
-      <c r="B71" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C71" s="7" t="inlineStr">
-        <is>
-          <t>19-11-2025 08:43:09</t>
-        </is>
-      </c>
-      <c r="D71" s="7" t="inlineStr">
-        <is>
-          <t>19-11-2025 09:13:09</t>
-        </is>
-      </c>
-      <c r="E71" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="n">
-        <v>254715</v>
-      </c>
-      <c r="B72" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C72" s="8" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D72" s="8" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="E72" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F72" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="n">
-        <v>254287</v>
-      </c>
-      <c r="B73" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C73" s="8" t="inlineStr">
-        <is>
-          <t>14-11-2025 09:49:32</t>
-        </is>
-      </c>
-      <c r="D73" s="8" t="inlineStr">
-        <is>
-          <t>14-11-2025 10:24:32</t>
-        </is>
-      </c>
-      <c r="E73" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="8" t="n">
-        <v>254427</v>
-      </c>
-      <c r="B74" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C74" s="8" t="inlineStr">
-        <is>
-          <t>14-11-2025 12:34:10</t>
-        </is>
-      </c>
-      <c r="D74" s="8" t="inlineStr">
-        <is>
-          <t>14-11-2025 13:14:10</t>
-        </is>
-      </c>
-      <c r="E74" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F74" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="8" t="n">
-        <v>254574</v>
-      </c>
-      <c r="B75" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C75" s="8" t="inlineStr">
-        <is>
-          <t>14-11-2025 14:09:44</t>
-        </is>
-      </c>
-      <c r="D75" s="8" t="inlineStr">
-        <is>
-          <t>14-11-2025 14:49:44</t>
-        </is>
-      </c>
-      <c r="E75" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="8" t="n">
-        <v>254245</v>
-      </c>
-      <c r="B76" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
-        <is>
-          <t>17-11-2025 09:43:20</t>
-        </is>
-      </c>
-      <c r="D76" s="8" t="inlineStr">
-        <is>
-          <t>17-11-2025 10:13:20</t>
-        </is>
-      </c>
-      <c r="E76" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="8" t="n">
-        <v>254356</v>
-      </c>
-      <c r="B77" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C77" s="8" t="inlineStr">
-        <is>
-          <t>17-11-2025 11:43:08</t>
-        </is>
-      </c>
-      <c r="D77" s="8" t="inlineStr">
-        <is>
-          <t>17-11-2025 12:08:08</t>
-        </is>
-      </c>
-      <c r="E77" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="n">
-        <v>253961</v>
-      </c>
-      <c r="B78" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C78" s="8" t="inlineStr">
-        <is>
-          <t>18-11-2025 07:07:44</t>
-        </is>
-      </c>
-      <c r="D78" s="8" t="inlineStr">
-        <is>
-          <t>18-11-2025 07:32:44</t>
-        </is>
-      </c>
-      <c r="E78" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="n">
-        <v>252811</v>
+        <v>254715</v>
       </c>
       <c r="B79" s="8" t="inlineStr">
         <is>
@@ -2593,24 +2589,26 @@
       </c>
       <c r="C79" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 08:08:39</t>
+          <t>14-11-2025 07:00:00</t>
         </is>
       </c>
       <c r="D79" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 08:38:39</t>
-        </is>
-      </c>
-      <c r="E79" s="8" t="n">
-        <v>0</v>
+          <t>14-11-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E79" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F79" s="8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="8" t="n">
-        <v>254651</v>
+        <v>254287</v>
       </c>
       <c r="B80" s="8" t="inlineStr">
         <is>
@@ -2619,24 +2617,24 @@
       </c>
       <c r="C80" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 08:50:32</t>
+          <t>14-11-2025 09:49:32</t>
         </is>
       </c>
       <c r="D80" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 09:25:32</t>
+          <t>14-11-2025 10:24:32</t>
         </is>
       </c>
       <c r="E80" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F80" s="8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="8" t="n">
-        <v>254652</v>
+        <v>254427</v>
       </c>
       <c r="B81" s="8" t="inlineStr">
         <is>
@@ -2645,24 +2643,26 @@
       </c>
       <c r="C81" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 09:48:10</t>
+          <t>14-11-2025 12:34:10</t>
         </is>
       </c>
       <c r="D81" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 10:18:10</t>
-        </is>
-      </c>
-      <c r="E81" s="8" t="n">
-        <v>0</v>
+          <t>14-11-2025 13:14:10</t>
+        </is>
+      </c>
+      <c r="E81" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="F81" s="8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="8" t="n">
-        <v>254756</v>
+        <v>254574</v>
       </c>
       <c r="B82" s="8" t="inlineStr">
         <is>
@@ -2671,12 +2671,12 @@
       </c>
       <c r="C82" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 10:46:54</t>
+          <t>14-11-2025 14:09:44</t>
         </is>
       </c>
       <c r="D82" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 11:36:54</t>
+          <t>14-11-2025 14:49:44</t>
         </is>
       </c>
       <c r="E82" s="8" t="n">
@@ -2688,7 +2688,7 @@
     </row>
     <row r="83">
       <c r="A83" s="8" t="n">
-        <v>254910</v>
+        <v>254460</v>
       </c>
       <c r="B83" s="8" t="inlineStr">
         <is>
@@ -2697,24 +2697,24 @@
       </c>
       <c r="C83" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 12:37:32</t>
+          <t>17-11-2025 09:43:20</t>
         </is>
       </c>
       <c r="D83" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 13:32:32</t>
+          <t>17-11-2025 10:13:20</t>
         </is>
       </c>
       <c r="E83" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="8" t="n">
-        <v>254101</v>
+        <v>254245</v>
       </c>
       <c r="B84" s="8" t="inlineStr">
         <is>
@@ -2723,24 +2723,24 @@
       </c>
       <c r="C84" s="8" t="inlineStr">
         <is>
-          <t>18-11-2025 14:46:04</t>
+          <t>17-11-2025 11:00:01</t>
         </is>
       </c>
       <c r="D84" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 07:26:04</t>
+          <t>17-11-2025 11:40:01</t>
         </is>
       </c>
       <c r="E84" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="8" t="n">
-        <v>254100</v>
+        <v>254356</v>
       </c>
       <c r="B85" s="8" t="inlineStr">
         <is>
@@ -2749,24 +2749,24 @@
       </c>
       <c r="C85" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 07:54:29</t>
+          <t>17-11-2025 13:09:49</t>
         </is>
       </c>
       <c r="D85" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 08:19:29</t>
+          <t>17-11-2025 13:34:49</t>
         </is>
       </c>
       <c r="E85" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F85" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="n">
-        <v>254252</v>
+        <v>253961</v>
       </c>
       <c r="B86" s="8" t="inlineStr">
         <is>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C86" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 08:47:55</t>
+          <t>18-11-2025 08:34:25</t>
         </is>
       </c>
       <c r="D86" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 09:22:55</t>
+          <t>18-11-2025 08:59:25</t>
         </is>
       </c>
       <c r="E86" s="8" t="n">
@@ -2792,7 +2792,7 @@
     </row>
     <row r="87">
       <c r="A87" s="8" t="n">
-        <v>254354</v>
+        <v>252811</v>
       </c>
       <c r="B87" s="8" t="inlineStr">
         <is>
@@ -2801,24 +2801,24 @@
       </c>
       <c r="C87" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 10:43:26</t>
+          <t>18-11-2025 09:35:20</t>
         </is>
       </c>
       <c r="D87" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 11:13:26</t>
+          <t>18-11-2025 10:05:20</t>
         </is>
       </c>
       <c r="E87" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F87" s="8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="8" t="n">
-        <v>253906</v>
+        <v>254651</v>
       </c>
       <c r="B88" s="8" t="inlineStr">
         <is>
@@ -2827,97 +2827,149 @@
       </c>
       <c r="C88" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 11:32:06</t>
+          <t>18-11-2025 10:17:13</t>
         </is>
       </c>
       <c r="D88" s="8" t="inlineStr">
         <is>
-          <t>19-11-2025 12:12:06</t>
+          <t>18-11-2025 10:52:13</t>
         </is>
       </c>
       <c r="E88" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="n">
+        <v>254586</v>
+      </c>
+      <c r="B89" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" s="8" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:14:51</t>
+        </is>
+      </c>
+      <c r="D89" s="8" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:49:51</t>
+        </is>
+      </c>
+      <c r="E89" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="n">
+        <v>254893</v>
+      </c>
+      <c r="B90" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" s="8" t="inlineStr">
+        <is>
+          <t>18-11-2025 12:41:24</t>
+        </is>
+      </c>
+      <c r="D90" s="8" t="inlineStr">
+        <is>
+          <t>18-11-2025 13:06:24</t>
+        </is>
+      </c>
+      <c r="E90" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>254521</v>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>12-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t>12-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>254521</v>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>12-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>12-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" s="4" t="n">
+    <row r="92">
+      <c r="A92" s="9" t="n">
+        <v>252980</v>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="9" t="n">
+    <row r="93">
+      <c r="A93" s="9" t="n">
         <v>254117</v>
       </c>
-      <c r="B90" s="9" t="inlineStr">
+      <c r="B93" s="9" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C90" s="9" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D90" s="9" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="E90" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9" t="n">
+      <c r="C93" s="9" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:17:04</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:17:04</t>
+        </is>
+      </c>
+      <c r="E93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="9" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="9" t="n">
-        <v>252980</v>
-      </c>
-      <c r="B91" s="9" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C91" s="9" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:09:10</t>
-        </is>
-      </c>
-      <c r="D91" s="9" t="inlineStr">
-        <is>
-          <t>14-11-2025 07:09:10</t>
-        </is>
-      </c>
-      <c r="E91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" s="9" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
